--- a/data.xlsx
+++ b/data.xlsx
@@ -8,16 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\for_python\bio_inf\bio_informatics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D67518-0556-49BB-84E9-8FB2E15A402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE3D03F-41F7-4B83-BA12-1A7B4B0B8F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgvEhlB7IbRTNHmSlKjJy2obVyNLw=="/>
     </ext>
@@ -330,7 +340,7 @@
   <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
